--- a/Hackathon/src/test/resources/ExcelFiles/FilteredRecipes.xlsx
+++ b/Hackathon/src/test/resources/ExcelFiles/FilteredRecipes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="323">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -1343,13 +1343,805 @@
   <si>
     <t>, almond, pistachio</t>
   </si>
+  <si>
+    <t>Recipe# 4355
+16 May 13</t>
+  </si>
+  <si>
+    <t>Yam and Spinach Pulusu</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2 cups yam (suran) cubes
+2 cups chopped spinach (palak)
+salt to taste
+a pinch of turmeric powder (haldi)
+1 tbsp thick tamarind (imli) pulp
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1 whole dry kashmiri red chilli , broken into pieces
+6 to 8 curry leaves (kadi patta)
+1 tsp roasted sesame seeds (til) powder
+To Be Ground Into A Smooth Powder
+1 tsp mustard seeds ( rai / sarson)
+2 tsp raw rice (chawal)
+3 to 4 whole dry kashmiri red chillies , broken into pieces</t>
+  </si>
+  <si>
+    <t>Combine the yam, 1½ cups of water, salt and turmeric powder in a deep non-stick pan, mix well and cover with a lid and cook on medium flame for 10 minutes, while stirring occasionally.
+Add the spinach, tamarind pulp, prepared powder and a little salt, mix well and cook on a medium flame for 2 minutes, while stirring occasionally. Keep aside.
+Heat the oil in a small non-stick pan, add the mustard seeds and fenugreek leaves
+When the seeds crackle, add the kashmiri chilli and curry leaves and sauté on a medium flame for a few seconds.
+Switch off the flame, add the tempering and the roasted sesame seeds powder to the yam and spinach mixture, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 56 cal
+Protein 1.1 g
+Carbohydrates 6.2 g
+Fiber 1.1 g
+Fat 3 g
+Cholesterol 0 mg
+Sodium 21.8 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yam-and-spinach-pulusu-4355r</t>
+  </si>
+  <si>
+    <t>Recipe# 32851
+16 Mar 19</t>
+  </si>
+  <si>
+    <t>Yam Errisery, Chena Erissery, Onam Sabzi</t>
+  </si>
+  <si>
+    <t>2 cups chopped yam (suran)
+4 drumsticks peeled , cut into 50 mm , pieces
+1/2 tsp turmeric powder (haldi)
+salt to taste
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+1 whole dry Kashmiri red chilli , broken in two pieces
+To Be Ground Into A Smooth Paste
+1 1/2 cups freshly grated coconut
+2 cloves (laung / lavang) , peeled and roughly chopped
+2 tsp chilli powder
+7 to 8 curry leaves (kadi patta)
+2 tbsp of water</t>
+  </si>
+  <si>
+    <t>Combine the yam, drumsticks, turmeric powder, salt and 3 cups of water in a deep pan, cover and cook on a medium flame till done or all the water gets evaporated while stirring once in between.
+Add the prepared paste and mix well.
+Sprinkle some water and cover and cook on a slow flame for a minute. Remove from the flame and keep aside.
+For the tempering, heat the oil in a kadhai and add the mustard seeds.
+When the seeds crackle, add the urad dal and red chillies and sauté on a medium flame for few seconds, while stirring continuously.
+Pour the tempering over the yam and drumstick mixture, mix well and simmer for another 2 to 3 minutes or till it becomes dry. Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 258 cal
+Protein 3 g
+Carbohydrates 17.7 g
+Fiber 6.5 g
+Fat 19.4 g
+Cholesterol 0 mg
+Vitamin A 214.8 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.8 mg
+Vitamin C 16 mg
+Folic Acid 6 mcg
+Calcium 41.2 mg
+Iron 1.1 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 6.2 mg
+Potassium 193.3 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yam-errisery-chena-erissery-onam-sabzi-32851r</t>
+  </si>
+  <si>
+    <t>Recipe# 40832
+03 Aug 21</t>
+  </si>
+  <si>
+    <t>Yam Fritters, Suran Pakoda</t>
+  </si>
+  <si>
+    <t>For Yam Fritters
+1 cup grated yam
+1/2 cup freshly grated coconut
+1/4 cup roasted peanuts
+3 whole dry kashmiri red chillies , broken into pieces
+1 tsp fennel seeds (saunf)
+1/2 tsp turmeric powder (haldi)
+1/2 cup besan (bengal gram flour)
+1/4 cup finely chopped onions
+2 tbsp chopped curry leaves (kadi patta)
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+oil for deep-frying</t>
+  </si>
+  <si>
+    <t>Combine the yam, red chillies, peanuts, coconut, fennel seeds and turmeric powder in a mixer and blend it to a coarse mixture using ½ cup of water.
+Transfer the mixture into a deep bowl, add the besan, onion, curry leaves, coriander and salt and mix well.
+Heat the oil in a deep non-stick kadhai and drop small spoonful of the mixture into the hot oil, a few at a time, on a medium flame till they turn golden brown in colour from all the sides. Drain on absorbent paper.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 275 cal
+Protein 5.7 g
+Carbohydrates 13.2 g
+Fiber 4.6 g
+Fat 22.6 g
+Cholesterol 0 mg
+Sodium 15.3 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yam-fritters-suran-pakoda-40832r</t>
+  </si>
+  <si>
+    <t>Recipe# 32917
+20 Aug 13</t>
+  </si>
+  <si>
+    <t>Yam Kalan, Kerala Curry</t>
+  </si>
+  <si>
+    <t>To Be Ground Into A Smooth Paste (makes Approx. 3 Cups)
+2 cups freshly grated coconut
+1 cup sour curds (khatta dahi)
+2 green chillies , roughly chopped
+1 tsp cumin seeds (jeera)
+Other Ingredients
+1 1/2 cups chopped yam (suran)
+1/2 tsp turmeric powder (haldi)
+1/2 tsp freshly ground black pepper (kalimirch) powder
+salt to taste
+1 tbsp coconut oil or any other refined oil
+1 tsp mustard seeds ( rai / sarson)
+1/2 tsp fenugreek (methi) leaves seeds
+1 whole dry kashmiri red chilli , broken into pieces
+5 to 6 curry leaves (kadi patta)</t>
+  </si>
+  <si>
+    <t>Combine the yam, turmeric powder, pepper, salt and 1 cup of water, mix well and cover and cook on a medium flame (for approx. 12 to 15 minutes) till it is cooked, stirring once in between.
+Add the prepared paste, mix gently and simmer for another 5 to 7 minutes. Remove from the flame and keep aside.
+For the tempering, heat the oil in a small pan and add the mustard seeds.
+When the seeds crackle, add the fenugreek seeds, red chillies and curry leaves and sauté on a medium flame for a few seconds.
+Pour the tempering over the curry, mix well and simmer for another minute. Serve hot.
+Variation :
+You can use raw bananas instead of yam as a variation to yam kalan.</t>
+  </si>
+  <si>
+    <t>Energy 352 cal
+Protein 5 g
+Carbohydrates 17.8 g
+Fiber 7.2 g
+Fat 27.8 g
+Cholesterol 0 mg
+Vitamin A 238.5 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.8 mg
+Vitamin C 1 mg
+Folic Acid 9.1 mcg
+Calcium 134 mg
+Iron 1.2 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 13.8 mg
+Potassium 158.8 mg
+Zinc 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yam-kalan-kerala-curry-32917r</t>
+  </si>
+  <si>
+    <t>Recipe# 32855
+02 Apr 20</t>
+  </si>
+  <si>
+    <t>Yam Poriyal</t>
+  </si>
+  <si>
+    <t>For The Curry Powder
+2 tsp coconut oil or any other refined oil
+1 tsp coriander (dhania) powder
+1/2 tsp besan (bengal gram flour)
+1/2 cup urad dal (split black lentils)
+2 tsp chilli powder
+2 tsp asafoetida (hing)
+1/2 tsp tamarind (imli)
+salt to taste
+Other Ingredients
+2 cups yam (suran) cubes
+1/4 tsp turmeric powder (haldi)
+salt to taste
+1 1/2 tbsp coconut oil or any other refined oil
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+1 tsp chana dal (split bengal gram)
+1 whole dry kashmiri red chilli , broken into pieces
+1/2 tsp asafoetida (hing)
+1/4 cup freshly grated coconut</t>
+  </si>
+  <si>
+    <t>For the curry powder
+Heat the oil in a small pan, add all the ingredients and saute for a few seconds till it leaves a pleasant aroma. Keep aside.
+How to proceed
+Combine the yam, turmeric powder, salt and ½ cup of water and pressure cook for 3 to 4 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a kadhai and add the mustard seeds.
+When the seeds crackle, add the urad dal, chana dal, chillies and asafoetida, mix well and sauté on a medium flame for a few seconds while stirring continuously.
+Add the cooked yam, coconut and curry powder, mix gently and cover and cook on a medium flame for 5 to 7 minutes, while stirring once in between. Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 185 cal
+Protein 5.6 g
+Carbohydrates 16 g
+Fiber 3.6 g
+Fat 11 g
+Cholesterol 0 mg
+Vitamin A 109.2 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.6 mg
+Vitamin C 0.1 mg
+Folic Acid 29.8 mcg
+Calcium 38 mg
+Iron 1 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 10.3 mg
+Potassium 200.6 mg
+Zinc 0.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yam-poriyal-32855r</t>
+  </si>
+  <si>
+    <t>Recipe# 42053
+22 May 21</t>
+  </si>
+  <si>
+    <t>Yellow Moong and Urad Dal Pakoda, Moong and Urad Dal Pakoda</t>
+  </si>
+  <si>
+    <t>For Yellow Moong and Urad Dal Pakoda
+1/2 cup yellow moong dal (split yellow gram)
+1/2 cup urad dal (split black lentils)
+1 tsp finely chopped ginger (adrak)
+2 tsp finely chopped green chillies
+1/4 tsp coarsely crushed cumin seeds (jeera)
+1/2 tsp coarsely crushed freshly ground black pepper (kalimirch)
+2 tbsp chopped curry leaves (kadi patta)
+2 tbsp finely chopped coriander (dhania)
+1/4 tsp asafoetida (hing)
+salt to taste
+2 tbsp besan (bengal gram flour)
+oil for deep-frying
+For Serving With Yellow Moong and Urad Dal Pakoda
+coconut chutney</t>
+  </si>
+  <si>
+    <t>For yellow moong and urad dal pakoda
+To make yellow moong and urad dal pakoda, combine the yellow moong dal and urad dal in a deep bowl and soak in enough water for 3 hours. Drain well.
+Blend in a mixer till coarse using ½ cup of water.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
+Heat the oil in a deep non-stick pan, drop spoonful of the mixture using your fingers and deep-fry, a few pakodas at a time, on a medium flame till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Serve the yellow moong and urad dal pakoda immediately with coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 206 cal
+Protein 9.4 g
+Carbohydrates 23.5 g
+Fiber 4.3 g
+Fat 8.2 g
+Cholesterol 0 mg
+Sodium 15.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yellow-moong-and-urad-dal-pakoda-moong-and-urad-dal-pakoda-42053r</t>
+  </si>
+  <si>
+    <t>Recipe# 22276
+03 Nov 22</t>
+  </si>
+  <si>
+    <t>Yellow Moong Dal and Spring Onion Paratha</t>
+  </si>
+  <si>
+    <t>For The Dough
+1 cup whole wheat flour (gehun ka atta)
+salt to taste
+For The Stuffing
+1/4 cup yellow moong dal (split yellow gram) , soaked for 1 hour and drained
+1/4 cup finely chopped spring onions
+1 tsp chilli powder
+1 tsp cumin seeds (jeera) powder
+1/4 tsp asafoetida (hing)
+salt to taste
+Other Ingredients For Yellow Moong Dal and Spring Onion Paratha
+whole wheat flour (gehun ka atta) for rolling
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>For the dough
+Combine the whole wheat flour and salt in a deep bowl, mix well and knead into a soft dough using enough water. Keep aside.
+For the stuffing
+Boil enough water in a deep non-stick pan, add the soaked and drained yellow moong dal and salt, mix well and cook on a medium flame for 6 to 8 minutes, while stirring occasionally. Drain well.
+Transfer the mixture into a plate and mash it lightly using a potato masher.
+Add all the remaining ingredients and mix well.
+Divide the stuffing into 6 equal portions and keep aside.
+How to proceed
+To make yellow moong dal and spring onion paratha, divide the dough into 6 equal portions.
+Roll a portion of the dough into a 75 mm (3") diameter circle using a little whole wheat flour for rolling.
+Place one portion of the stuffing in the centre of the circle.
+Bring together all the sides in the centre and seal tightly.
+Roll out again into 100 mm. (4") diameter circle, using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the paratha using ¼ tsp of oil till golden brown spots appear on both the sides.
+Repeat steps 2 to 6 to make 5 more parathas.
+Serve the yellow moong dal and spring onion paratha immediately.</t>
+  </si>
+  <si>
+    <t>Energy 109 cal
+Protein 4.2 g
+Carbohydrates 19.7 g
+Fiber 3.2 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 6.2 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yellow-moong-dal-and-spring-onion-paratha-22276r</t>
+  </si>
+  <si>
+    <t>Recipe# 40753
+28 Sep 20</t>
+  </si>
+  <si>
+    <t>Yellow Banana Chips, Banana Wafers, Raw Banana Wafers</t>
+  </si>
+  <si>
+    <t>For Yellow Banana Chips
+2 large surti raw bananas
+2 tsp salt
+oil for deep-frying</t>
+  </si>
+  <si>
+    <t>For yellow banana chips
+To make yellow banana chips, heat the oil in a deep non-stick pan on a slow flame.
+Meanwhile, make light slits on the raw banana peels at equal distance while taking care not to slit the raw banana.
+Trim both the edges of the raw banana and gently remove the peel using your fingers. Keep aside.
+Combine the salt and 4 tbsp of water in a small bowl and mix well till the salt dissolves completely. Keep aside.
+Slice half the raw banana using a slicer directly into the hot oil.
+Allow the banana slices to cook for ½ minute and then add 1 tbsp of salt-water mixture to the oil. Let this cook for ½ minute again and then gently mix well using a slotted spoon.
+Continue cooking the chips on a medium flame till they turn crisp from both the sides and the spluttering sound of oil-water stops, while stirring occasionally. Remove the banana chips from the oil and drain on an absorbent paper.
+Repeat the same procedure to make more banana chips in 3 more batches.
+Cool yellow banana chips completely and serve or store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 351 cal
+Protein 1.1 g
+Carbohydrates 11.2 g
+Fiber 0.4 g
+Fat 33.5 g
+Cholesterol 0 mg
+Vitamin A 324 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.2 mg
+Vitamin C 19.2 mg
+Folic Acid 13.1 mcg
+Calcium 8 mg
+Iron 5 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 12 mg
+Potassium 154.4 mg
+Zinc 0 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yellow-banana-chips-banana-wafers-raw-banana-wafers-40753r</t>
+  </si>
+  <si>
+    <t>Recipe# 41299
+18 Apr 22</t>
+  </si>
+  <si>
+    <t>Yellow Moong Dal Khichu</t>
+  </si>
+  <si>
+    <t>1/2 cup yellow moong dal (split yellow gram) , soaked for 1 hour and drained
+1 tsp finely chopped green chillies
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+a pinch of baking soda
+salt to taste
+For Serving
+oil for drizzling
+koro sambhar for sprinkling</t>
+  </si>
+  <si>
+    <t>Combine the moong dal and ¼ cup of water in a mixer and blend it till smooth paste.
+Heat 1¼ cup of water in a deep non-stick pan, add green chillies, cumin seeds, asafoetida, soda bi-carb and salt mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the prepared moong dal paste, mix well using a rolling pin and cook on a medium flame for 3 to 4 minutes or till it leaves the sides of the pan.
+Serve immediately with oil and koro sambhar.</t>
+  </si>
+  <si>
+    <t>Energy 88 cal
+Protein 6.2 g
+Carbohydrates 15.2 g
+Fiber 2.1 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 6.9 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yellow-moong-dal-khichu-41299r</t>
+  </si>
+  <si>
+    <t>Recipe# 2361
+29 Sep 21</t>
+  </si>
+  <si>
+    <t>Yoghurt Paneer Dip, Healthy Veg Curd Paneer Dip</t>
+  </si>
+  <si>
+    <t>For Yoghurt Paneer Dip
+3/4 cup hung curds (chakka dahi)
+3/4 cup chopped paneer (cottage cheese)
+2 tsp finely chopped onions
+2 tsp finely chopped celery (ajmoda)
+2 tsp finely chopped capsicum
+2 pinches chilli powder
+1/4 tsp finely chopped green chillies
+salt to taste
+For The Garnish
+chopped parsley
+chopped capsicum
+chopped celery (ajmoda)
+For Serving
+cream cracker biscuits
+cucumber strips
+carrot strips
+celery strips
+radish strips</t>
+  </si>
+  <si>
+    <t>Yoghurt paneer dip
+To make yoghurt paneer dip, combine all the ingredients in a deep bowl and mix well while mashing the paneer with the help of a spoon.
+Refrigerate for at least 1 hour.
+Garnish with parsley, capsicum and celery.
+Serve the yoghurt paneer dip chilled with cream cracker biscuits, cucumber strips, carrot strips, celery strips and radish strips.</t>
+  </si>
+  <si>
+    <t>Energy 40 cal
+Protein 1.6 g
+Carbohydrates 1.5 g
+Fiber 0 g
+Fat 2.6 g
+Cholesterol 2.8 mg
+Sodium 3.8 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yoghurt-paneer-dip-healthy-veg-curd-paneer-dip-2361r</t>
+  </si>
+  <si>
+    <t>Recipe# 3067
+11 May 20</t>
+  </si>
+  <si>
+    <t>Yummy Oats and Apple Porridge ( Baby and Toddler Recipe)</t>
+  </si>
+  <si>
+    <t>3 tbsp quick cooking rolled oats
+1/4 cup peeled and finely chopped apple
+1 tsp butter
+1/2 cup milk
+1 tbsp grated jaggery (gur)</t>
+  </si>
+  <si>
+    <t>Heat the butter in a broad non-stick pan, add the oats and sauté on a slow flame for 2 minutes or till the oats turn light brown in colour.
+Add the milk and jaggery, mix well and cook on a slow flame for 2 to 3 minutes, while stirring occasionally.
+Add the apple, mix well and cook on a slow flame for 1 more minute.
+Remove from the flame and keep aside to cool slightly.
+When cool, blend in a mixer to a smooth purée.
+Serve lukewarm.</t>
+  </si>
+  <si>
+    <t>Energy 42 cal
+Protein 1.1 g
+Carbohydrates 5.4 g
+Fiber 0.4 g
+Fat 1.5 g
+Cholesterol 3.4 mg
+Sodium 7.4 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yummy-oats-and-apple-porridge---baby-and-toddler-recipe-3067r</t>
+  </si>
+  <si>
+    <t>Recipe# 33294
+24 Nov 20</t>
+  </si>
+  <si>
+    <t>Yam Raita, Farali Suran Raita Recipe</t>
+  </si>
+  <si>
+    <t>For Yam Raita
+1 cup peeled , boiled and mashed yam (suran)
+1 cup fresh curd (dahi)
+rock salt (sendha namak) to taste
+1 1/2 tsp sugar
+1/2 tsp green chilli paste
+1/2 tsp freshly ground black pepper (kalimirch)
+2 tsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For yam raita
+To make yam raita, combine all the ingredients in a bowl and mix well.
+Refrigerate for at least 1 hour.
+Serve yam raita chilled.</t>
+  </si>
+  <si>
+    <t>Energy 245 cal
+Protein 6.8 g
+Carbohydrates 27.8 g
+Fiber 0.7 g
+Fat 8.8 g
+Cholesterol 21.4 mg
+Sodium 33.8 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yam-raita-farali-suran-raita-recipe-33294r</t>
+  </si>
+  <si>
+    <t>Recipe# 1760
+01 Jan 01</t>
+  </si>
+  <si>
+    <t>Yin Yang Soup</t>
+  </si>
+  <si>
+    <t>For the curd-potato soup
+1 cup potato cubes
+1/2 onion, chopped
+1 tsp carom seeds
+1/2 tsp dry red chilli flakes (paprika)
+1/2 cup curds (dahi)
+1/2 cup milk
+2 tbsp oil
+salt to taste
+For the broccoli soup
+2 cups broccoli florets
+1/2 onion, chopped
+1 tbsp plain flour (maida)
+2 tbsp butter
+salt and black pepper (kalimirch) powder to taste</t>
+  </si>
+  <si>
+    <t>10 minutes.</t>
+  </si>
+  <si>
+    <t>20 minutes.</t>
+  </si>
+  <si>
+    <t>For the curd-potato soup
+Heat the oil in a pan, add the chopped onion, carom and paprika to the pan and fry for a few minutes.
+Add the potatoes and fry for a few more minutes.
+Add 1 1/2 cups of water and salt and summer till the potatoes are cooked.
+Cool the potato mixture and puree in a blender with the curds and milk till smooth. Keep aside.
+For the broccoli soup
+Heat the butter in a pan, add the onion and fry for a few minutes.
+Add the broccoli and stir for 4 to 5 minutes.
+Sprinkle the flour over the broccoli and continue stirring for another 2 minutes.
+Add 2 cups of water, stirring continuously.
+Simmer till the broccoli is tender and add salt and pepper.
+Cool slightly and puree in a blender till smooth.
+Keep aside.
+How to proceed
+Reheat both the soups separately.
+Cut piece of foil or butter paper of a length equal to the diameter of the serving soup bowl and place it in the centre of a serving soup bowl.
+Carefully spoon both the soups on opposite sides of the foil.
+Gently remove the piece of foil so that both the soups have a line of differentiation.
+Repeat with three other bowls.</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yin-yang-soup-1760r</t>
+  </si>
+  <si>
+    <t>Recipe# 3973
+20 Aug 13</t>
+  </si>
+  <si>
+    <t>Yoghurt Lollies</t>
+  </si>
+  <si>
+    <t>1 cup fresh low fat curds (dahi)
+1 cup mango or strawberry puree
+3 to 4 tbsp sugar
+1/2 tsp vanilla essence</t>
+  </si>
+  <si>
+    <t>5 mins.</t>
+  </si>
+  <si>
+    <t>Nil.</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a liquidiser and blend into a smooth mixture.
+Pour into plastic lolly moulds and freeze for 6 to 8 hours till firm.
+Insert wooden ice-cream sticks into the frozen lollies and unmould.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 61 cal
+Protein 1.3 g
+Carbohydrates 13.6 g
+Fiber 0.2 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 22.7 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yoghurt-lollies-3973r</t>
+  </si>
+  <si>
+    <t>Recipe# 1908
+12 Aug 14</t>
+  </si>
+  <si>
+    <t>Yoghurt Lollies ( Fun Food For Children)</t>
+  </si>
+  <si>
+    <t>1 cup fresh curds (dahi)
+1 cup mango or strawberry puree
+3 to 4 tbsp sugar
+1/2 tsp vanilla essence</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a liquidizer and blend to a smooth mixture.
+Pour into plastic lolly moulds and freeze for 6 to 8 hours till they are firm. .
+Insert wooden ice-cream sticks into the frozen lollies and unmould. .
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 97 cal
+Protein 1.6 g
+Carbohydrates 15.5 g
+Fiber 0.2 g
+Fat 2.3 g
+Cholesterol 5.3 mg
+Sodium 15.4 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yoghurt-lollies--fun-food-for-children-1908r</t>
+  </si>
+  <si>
+    <t>Recipe# 40884
+26 May 16</t>
+  </si>
+  <si>
+    <t>Yogurt Banana Candies</t>
+  </si>
+  <si>
+    <t>1/2 cup thick curds (dahi)
+4 bananas
+1 tbsp rose syrup
+1 tbsp powdered sugar
+8 ice cream sticks
+rose syrup for drizzling</t>
+  </si>
+  <si>
+    <t>Combine the curds, rose syrup and sugar in a deep bowl and whisk well using a whisk. Keep aside.
+Cut each banana into 2 halves to get 8 halves in total. Keep aside.
+Insert 1 ice cream stick in each banana halve.
+Dip each banana candy into the curd mixture till all the sides are evenly coated. Place them on a tray lined with aluminium foil.
+Put them in the freezer for 1 hour or till set.
+Just before serving, drizzle little rose syrup over each candy.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 69 cal
+Protein 1 g
+Carbohydrates 13.7 g
+Fiber 0.6 g
+Fat 0.9 g
+Cholesterol 2 mg
+Sodium 15.2 mg</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yogurt-banana-candies-40884r</t>
+  </si>
+  <si>
+    <t>Recipe# 441
+26 Nov 13</t>
+  </si>
+  <si>
+    <t>Yellow Moong Toast</t>
+  </si>
+  <si>
+    <t>1/2 cup yellow moong dal (split yellow gram) , soaked for 30 minutes and drained
+1/2 cup cooked and mashed potatoes
+2 tbsp cornflour
+1 tbsp chopped coriander (dhania)
+1 tsp chopped garlic (lehsun)
+1/2 tsp soy sauce
+1 tsp sugar
+1 1/2 tsp green chilli paste
+salt to taste
+1/2 tsp freshly ground black pepper (kalimirch)
+12 bread slices
+oil for deep-frying
+For Serving
+tabasco sauce
+tomato ketchup</t>
+  </si>
+  <si>
+    <t>Combine the drained moong dal along with approx. 2 tbsp of water and blend in a mixer to a coarse paste.
+Transfer the mixture into a bowl, add the potatoes, cornflour, coriander, garlic, soya sauce, sugar, green chilli paste, salt and pepper and mix well.
+Divide the mixture into 12 equal portions.
+Place a bread slice on a flat surface and spread a portion of the mixture evenly over it.
+Heat the oil in a deep non-stick kadhai and slide the toast in it with the topping side facing downwards and deep-fry the toast on a medium flame till it turns golden brown in colour from both the sides.
+Repeat steps 4 and 5 to make 11 more toasts.
+Cut each toast diagonally into 2 and serve immediately with tobacco sauce or tomato ketchup.</t>
+  </si>
+  <si>
+    <t>https://tarladalal.com/yellow-moong-toast-441r</t>
+  </si>
+  <si>
+    <t>, Milk, cashew, Milk</t>
+  </si>
+  <si>
+    <t>, Milk, Milk</t>
+  </si>
+  <si>
+    <t>, Soy</t>
+  </si>
+  <si>
+    <t>, Egg</t>
+  </si>
+  <si>
+    <t>, Sesame</t>
+  </si>
+  <si>
+    <t>, Peanuts, cashew, Peanuts</t>
+  </si>
+  <si>
+    <t>, almond, almond</t>
+  </si>
+  <si>
+    <t>, almond, pistachio, almond</t>
+  </si>
+  <si>
+    <t>, cashew, cashew</t>
+  </si>
+  <si>
+    <t>, Milk, cashew, Milk, cashew</t>
+  </si>
+  <si>
+    <t>, Peanuts, cashew, Peanuts, cashew</t>
+  </si>
+  <si>
+    <t>, pistachio, pistachio</t>
+  </si>
+  <si>
+    <t>, almond, pistachio, almond, pistachio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="63">
+  <fonts count="88">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1643,6 +2435,156 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -1750,7 +2692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true"/>
@@ -1910,13 +2852,38 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2074,6 +3041,272 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="63">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s" s="63">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s" s="63">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="63">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s" s="63">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s" s="63">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s" s="63">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="63">
+        <v>209</v>
+      </c>
+      <c r="I5" t="s" s="63">
+        <v>210</v>
+      </c>
+      <c r="J5" t="s" s="63">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s" s="63">
+        <v>211</v>
+      </c>
+      <c r="L5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="64">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s" s="64">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s" s="64">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="64">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s" s="64">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s" s="64">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s" s="64">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s" s="64">
+        <v>215</v>
+      </c>
+      <c r="I6" t="s" s="64">
+        <v>216</v>
+      </c>
+      <c r="J6" t="s" s="64">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s" s="64">
+        <v>217</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="65">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s" s="65">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s" s="65">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="65">
+        <v>207</v>
+      </c>
+      <c r="E7" t="s" s="65">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s" s="65">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s" s="65">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s" s="65">
+        <v>221</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>222</v>
+      </c>
+      <c r="J7" t="s" s="65">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s" s="65">
+        <v>223</v>
+      </c>
+      <c r="L7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="66">
+        <v>224</v>
+      </c>
+      <c r="B8" t="s" s="66">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s" s="66">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="66">
+        <v>207</v>
+      </c>
+      <c r="E8" t="s" s="66">
+        <v>226</v>
+      </c>
+      <c r="F8" t="s" s="66">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="66">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s" s="66">
+        <v>227</v>
+      </c>
+      <c r="I8" t="s" s="66">
+        <v>228</v>
+      </c>
+      <c r="J8" t="s" s="66">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s" s="66">
+        <v>229</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="67">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s" s="67">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s" s="67">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="67">
+        <v>207</v>
+      </c>
+      <c r="E9" t="s" s="67">
+        <v>232</v>
+      </c>
+      <c r="F9" t="s" s="67">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s" s="67">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s" s="67">
+        <v>233</v>
+      </c>
+      <c r="I9" t="s" s="67">
+        <v>234</v>
+      </c>
+      <c r="J9" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s" s="67">
+        <v>235</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="68">
+        <v>236</v>
+      </c>
+      <c r="B10" t="s" s="68">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s" s="68">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="68">
+        <v>207</v>
+      </c>
+      <c r="E10" t="s" s="68">
+        <v>238</v>
+      </c>
+      <c r="F10" t="s" s="68">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s" s="68">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s" s="68">
+        <v>239</v>
+      </c>
+      <c r="I10" t="s" s="68">
+        <v>240</v>
+      </c>
+      <c r="J10" t="s" s="68">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s" s="68">
+        <v>241</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>247</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2081,7 +3314,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2160,7 +3393,7 @@
         <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
@@ -2312,7 +3545,7 @@
         <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7">
@@ -2392,41 +3625,41 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="49">
+      <c r="A9" t="s" s="69">
         <v>88</v>
       </c>
-      <c r="B9" t="s" s="49">
+      <c r="B9" t="s" s="69">
         <v>89</v>
       </c>
-      <c r="C9" t="s" s="49">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="49">
+      <c r="C9" t="s" s="69">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="69">
         <v>15</v>
       </c>
-      <c r="E9" t="s" s="49">
+      <c r="E9" t="s" s="69">
         <v>90</v>
       </c>
-      <c r="F9" t="s" s="49">
+      <c r="F9" t="s" s="69">
         <v>41</v>
       </c>
-      <c r="G9" t="s" s="49">
+      <c r="G9" t="s" s="69">
         <v>70</v>
       </c>
-      <c r="H9" t="s" s="49">
+      <c r="H9" t="s" s="69">
         <v>91</v>
       </c>
-      <c r="I9" t="s" s="49">
+      <c r="I9" t="s" s="69">
         <v>92</v>
       </c>
-      <c r="J9" t="s" s="49">
+      <c r="J9" t="s" s="69">
         <v>44</v>
       </c>
-      <c r="K9" t="s" s="49">
+      <c r="K9" t="s" s="69">
         <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
@@ -2654,6 +3887,348 @@
         <v>118</v>
       </c>
       <c r="L15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>253</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" t="s">
+        <v>240</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>245</v>
+      </c>
+      <c r="I21" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>247</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" t="s">
+        <v>258</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>259</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>263</v>
+      </c>
+      <c r="I23" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>269</v>
+      </c>
+      <c r="I24" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
+        <v>271</v>
+      </c>
+      <c r="L24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2664,7 +4239,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2709,113 +4284,113 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="50">
+      <c r="A2" t="s" s="70">
         <v>119</v>
       </c>
-      <c r="B2" t="s" s="50">
+      <c r="B2" t="s" s="70">
         <v>120</v>
       </c>
-      <c r="C2" t="s" s="50">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="50">
+      <c r="C2" t="s" s="70">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="70">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="50">
+      <c r="E2" t="s" s="70">
         <v>121</v>
       </c>
-      <c r="F2" t="s" s="50">
+      <c r="F2" t="s" s="70">
         <v>17</v>
       </c>
-      <c r="G2" t="s" s="50">
+      <c r="G2" t="s" s="70">
         <v>122</v>
       </c>
-      <c r="H2" t="s" s="50">
+      <c r="H2" t="s" s="70">
         <v>123</v>
       </c>
-      <c r="I2" t="s" s="50">
+      <c r="I2" t="s" s="70">
         <v>124</v>
       </c>
-      <c r="J2" t="s" s="50">
+      <c r="J2" t="s" s="70">
         <v>125</v>
       </c>
-      <c r="K2" t="s" s="50">
+      <c r="K2" t="s" s="70">
         <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="51">
+      <c r="A3" t="s" s="71">
         <v>38</v>
       </c>
-      <c r="B3" t="s" s="51">
+      <c r="B3" t="s" s="71">
         <v>39</v>
       </c>
-      <c r="C3" t="s" s="51">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="51">
+      <c r="C3" t="s" s="71">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="71">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="51">
+      <c r="E3" t="s" s="71">
         <v>40</v>
       </c>
-      <c r="F3" t="s" s="51">
+      <c r="F3" t="s" s="71">
         <v>41</v>
       </c>
-      <c r="G3" t="s" s="51">
+      <c r="G3" t="s" s="71">
         <v>41</v>
       </c>
-      <c r="H3" t="s" s="51">
+      <c r="H3" t="s" s="71">
         <v>42</v>
       </c>
-      <c r="I3" t="s" s="51">
+      <c r="I3" t="s" s="71">
         <v>43</v>
       </c>
-      <c r="J3" t="s" s="51">
+      <c r="J3" t="s" s="71">
         <v>125</v>
       </c>
-      <c r="K3" t="s" s="51">
+      <c r="K3" t="s" s="71">
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="52">
+      <c r="A4" t="s" s="72">
         <v>46</v>
       </c>
-      <c r="B4" t="s" s="52">
+      <c r="B4" t="s" s="72">
         <v>47</v>
       </c>
-      <c r="C4" t="s" s="52">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="52">
+      <c r="C4" t="s" s="72">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="72">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="52">
+      <c r="E4" t="s" s="72">
         <v>48</v>
       </c>
-      <c r="F4" t="s" s="52">
+      <c r="F4" t="s" s="72">
         <v>18</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" t="s" s="72">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="52">
+      <c r="H4" t="s" s="72">
         <v>50</v>
       </c>
-      <c r="I4" t="s" s="52">
+      <c r="I4" t="s" s="72">
         <v>51</v>
       </c>
-      <c r="J4" t="s" s="52">
+      <c r="J4" t="s" s="72">
         <v>125</v>
       </c>
-      <c r="K4" t="s" s="52">
+      <c r="K4" t="s" s="72">
         <v>52</v>
       </c>
       <c r="L4" t="s">
@@ -2857,7 +4432,7 @@
         <v>132</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6">
@@ -2937,41 +4512,41 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="53">
+      <c r="A8" t="s" s="73">
         <v>67</v>
       </c>
-      <c r="B8" t="s" s="53">
+      <c r="B8" t="s" s="73">
         <v>68</v>
       </c>
-      <c r="C8" t="s" s="53">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="53">
+      <c r="C8" t="s" s="73">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="73">
         <v>15</v>
       </c>
-      <c r="E8" t="s" s="53">
+      <c r="E8" t="s" s="73">
         <v>69</v>
       </c>
-      <c r="F8" t="s" s="53">
+      <c r="F8" t="s" s="73">
         <v>62</v>
       </c>
-      <c r="G8" t="s" s="53">
+      <c r="G8" t="s" s="73">
         <v>70</v>
       </c>
-      <c r="H8" t="s" s="53">
+      <c r="H8" t="s" s="73">
         <v>71</v>
       </c>
-      <c r="I8" t="s" s="53">
+      <c r="I8" t="s" s="73">
         <v>72</v>
       </c>
-      <c r="J8" t="s" s="53">
+      <c r="J8" t="s" s="73">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="53">
+      <c r="K8" t="s" s="73">
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9">
@@ -3051,37 +4626,37 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="54">
+      <c r="A11" t="s" s="74">
         <v>74</v>
       </c>
-      <c r="B11" t="s" s="54">
+      <c r="B11" t="s" s="74">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="54">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="54">
+      <c r="C11" t="s" s="74">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="74">
         <v>15</v>
       </c>
-      <c r="E11" t="s" s="54">
+      <c r="E11" t="s" s="74">
         <v>76</v>
       </c>
-      <c r="F11" t="s" s="54">
+      <c r="F11" t="s" s="74">
         <v>41</v>
       </c>
-      <c r="G11" t="s" s="54">
+      <c r="G11" t="s" s="74">
         <v>63</v>
       </c>
-      <c r="H11" t="s" s="54">
+      <c r="H11" t="s" s="74">
         <v>77</v>
       </c>
-      <c r="I11" t="s" s="54">
+      <c r="I11" t="s" s="74">
         <v>78</v>
       </c>
-      <c r="J11" t="s" s="54">
+      <c r="J11" t="s" s="74">
         <v>125</v>
       </c>
-      <c r="K11" t="s" s="54">
+      <c r="K11" t="s" s="74">
         <v>79</v>
       </c>
       <c r="L11" t="s">
@@ -3089,37 +4664,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="55">
+      <c r="A12" t="s" s="75">
         <v>80</v>
       </c>
-      <c r="B12" t="s" s="55">
+      <c r="B12" t="s" s="75">
         <v>81</v>
       </c>
-      <c r="C12" t="s" s="55">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s" s="55">
+      <c r="C12" t="s" s="75">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="75">
         <v>15</v>
       </c>
-      <c r="E12" t="s" s="55">
+      <c r="E12" t="s" s="75">
         <v>82</v>
       </c>
-      <c r="F12" t="s" s="55">
+      <c r="F12" t="s" s="75">
         <v>83</v>
       </c>
-      <c r="G12" t="s" s="55">
+      <c r="G12" t="s" s="75">
         <v>84</v>
       </c>
-      <c r="H12" t="s" s="55">
+      <c r="H12" t="s" s="75">
         <v>85</v>
       </c>
-      <c r="I12" t="s" s="55">
+      <c r="I12" t="s" s="75">
         <v>86</v>
       </c>
-      <c r="J12" t="s" s="55">
+      <c r="J12" t="s" s="75">
         <v>125</v>
       </c>
-      <c r="K12" t="s" s="55">
+      <c r="K12" t="s" s="75">
         <v>87</v>
       </c>
       <c r="L12" t="s">
@@ -3127,37 +4702,37 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="56">
+      <c r="A13" t="s" s="76">
         <v>146</v>
       </c>
-      <c r="B13" t="s" s="56">
+      <c r="B13" t="s" s="76">
         <v>147</v>
       </c>
-      <c r="C13" t="s" s="56">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s" s="56">
+      <c r="C13" t="s" s="76">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="76">
         <v>15</v>
       </c>
-      <c r="E13" t="s" s="56">
+      <c r="E13" t="s" s="76">
         <v>148</v>
       </c>
-      <c r="F13" t="s" s="56">
+      <c r="F13" t="s" s="76">
         <v>83</v>
       </c>
-      <c r="G13" t="s" s="56">
+      <c r="G13" t="s" s="76">
         <v>149</v>
       </c>
-      <c r="H13" t="s" s="56">
+      <c r="H13" t="s" s="76">
         <v>150</v>
       </c>
-      <c r="I13" t="s" s="56">
+      <c r="I13" t="s" s="76">
         <v>151</v>
       </c>
-      <c r="J13" t="s" s="56">
+      <c r="J13" t="s" s="76">
         <v>125</v>
       </c>
-      <c r="K13" t="s" s="56">
+      <c r="K13" t="s" s="76">
         <v>152</v>
       </c>
       <c r="L13" t="s">
@@ -3203,41 +4778,41 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="57">
+      <c r="A15" t="s" s="77">
         <v>88</v>
       </c>
-      <c r="B15" t="s" s="57">
+      <c r="B15" t="s" s="77">
         <v>89</v>
       </c>
-      <c r="C15" t="s" s="57">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s" s="57">
+      <c r="C15" t="s" s="77">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="77">
         <v>15</v>
       </c>
-      <c r="E15" t="s" s="57">
+      <c r="E15" t="s" s="77">
         <v>90</v>
       </c>
-      <c r="F15" t="s" s="57">
+      <c r="F15" t="s" s="77">
         <v>41</v>
       </c>
-      <c r="G15" t="s" s="57">
+      <c r="G15" t="s" s="77">
         <v>70</v>
       </c>
-      <c r="H15" t="s" s="57">
+      <c r="H15" t="s" s="77">
         <v>91</v>
       </c>
-      <c r="I15" t="s" s="57">
+      <c r="I15" t="s" s="77">
         <v>92</v>
       </c>
-      <c r="J15" t="s" s="57">
+      <c r="J15" t="s" s="77">
         <v>125</v>
       </c>
-      <c r="K15" t="s" s="57">
+      <c r="K15" t="s" s="77">
         <v>93</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16">
@@ -3313,7 +4888,7 @@
         <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18">
@@ -3389,45 +4964,45 @@
         <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="58">
+      <c r="A20" t="s" s="78">
         <v>171</v>
       </c>
-      <c r="B20" t="s" s="58">
+      <c r="B20" t="s" s="78">
         <v>172</v>
       </c>
-      <c r="C20" t="s" s="58">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s" s="58">
+      <c r="C20" t="s" s="78">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="78">
         <v>15</v>
       </c>
-      <c r="E20" t="s" s="58">
+      <c r="E20" t="s" s="78">
         <v>173</v>
       </c>
-      <c r="F20" t="s" s="58">
+      <c r="F20" t="s" s="78">
         <v>83</v>
       </c>
-      <c r="G20" t="s" s="58">
+      <c r="G20" t="s" s="78">
         <v>18</v>
       </c>
-      <c r="H20" t="s" s="58">
+      <c r="H20" t="s" s="78">
         <v>174</v>
       </c>
-      <c r="I20" t="s" s="58">
+      <c r="I20" t="s" s="78">
         <v>175</v>
       </c>
-      <c r="J20" t="s" s="58">
+      <c r="J20" t="s" s="78">
         <v>125</v>
       </c>
-      <c r="K20" t="s" s="58">
+      <c r="K20" t="s" s="78">
         <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21">
@@ -3617,6 +5192,538 @@
         <v>188</v>
       </c>
       <c r="L25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="79">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s" s="79">
+        <v>206</v>
+      </c>
+      <c r="C26" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="79">
+        <v>207</v>
+      </c>
+      <c r="E26" t="s" s="79">
+        <v>208</v>
+      </c>
+      <c r="F26" t="s" s="79">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s" s="79">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s" s="79">
+        <v>209</v>
+      </c>
+      <c r="I26" t="s" s="79">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s" s="79">
+        <v>125</v>
+      </c>
+      <c r="K26" t="s" s="79">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="80">
+        <v>218</v>
+      </c>
+      <c r="B28" t="s" s="80">
+        <v>219</v>
+      </c>
+      <c r="C28" t="s" s="80">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="80">
+        <v>207</v>
+      </c>
+      <c r="E28" t="s" s="80">
+        <v>220</v>
+      </c>
+      <c r="F28" t="s" s="80">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="80">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s" s="80">
+        <v>221</v>
+      </c>
+      <c r="I28" t="s" s="80">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s" s="80">
+        <v>125</v>
+      </c>
+      <c r="K28" t="s" s="80">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="81">
+        <v>278</v>
+      </c>
+      <c r="B35" t="s" s="81">
+        <v>279</v>
+      </c>
+      <c r="C35" t="s" s="81">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="81">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s" s="81">
+        <v>280</v>
+      </c>
+      <c r="F35" t="s" s="81">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s" s="81">
+        <v>282</v>
+      </c>
+      <c r="H35" t="s" s="81">
+        <v>283</v>
+      </c>
+      <c r="I35" t="s" s="81">
+        <v>117</v>
+      </c>
+      <c r="J35" t="s" s="81">
+        <v>125</v>
+      </c>
+      <c r="K35" t="s" s="81">
+        <v>284</v>
+      </c>
+      <c r="L35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" t="s">
+        <v>290</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" t="s">
+        <v>292</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>296</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>125</v>
+      </c>
+      <c r="K37" t="s">
+        <v>298</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="82">
+        <v>299</v>
+      </c>
+      <c r="B38" t="s" s="82">
+        <v>300</v>
+      </c>
+      <c r="C38" t="s" s="82">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="82">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s" s="82">
+        <v>301</v>
+      </c>
+      <c r="F38" t="s" s="82">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s" s="82">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s" s="82">
+        <v>302</v>
+      </c>
+      <c r="I38" t="s" s="82">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s" s="82">
+        <v>125</v>
+      </c>
+      <c r="K38" t="s" s="82">
+        <v>304</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3627,7 +5734,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3706,79 +5813,79 @@
         <v>126</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="59">
+      <c r="A3" t="s" s="83">
         <v>38</v>
       </c>
-      <c r="B3" t="s" s="59">
+      <c r="B3" t="s" s="83">
         <v>39</v>
       </c>
-      <c r="C3" t="s" s="59">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="59">
+      <c r="C3" t="s" s="83">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="83">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="59">
+      <c r="E3" t="s" s="83">
         <v>40</v>
       </c>
-      <c r="F3" t="s" s="59">
+      <c r="F3" t="s" s="83">
         <v>41</v>
       </c>
-      <c r="G3" t="s" s="59">
+      <c r="G3" t="s" s="83">
         <v>41</v>
       </c>
-      <c r="H3" t="s" s="59">
+      <c r="H3" t="s" s="83">
         <v>42</v>
       </c>
-      <c r="I3" t="s" s="59">
+      <c r="I3" t="s" s="83">
         <v>43</v>
       </c>
-      <c r="J3" t="s" s="59">
+      <c r="J3" t="s" s="83">
         <v>189</v>
       </c>
-      <c r="K3" t="s" s="59">
+      <c r="K3" t="s" s="83">
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="60">
+      <c r="A4" t="s" s="84">
         <v>46</v>
       </c>
-      <c r="B4" t="s" s="60">
+      <c r="B4" t="s" s="84">
         <v>47</v>
       </c>
-      <c r="C4" t="s" s="60">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="60">
+      <c r="C4" t="s" s="84">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="84">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="60">
+      <c r="E4" t="s" s="84">
         <v>48</v>
       </c>
-      <c r="F4" t="s" s="60">
+      <c r="F4" t="s" s="84">
         <v>18</v>
       </c>
-      <c r="G4" t="s" s="60">
+      <c r="G4" t="s" s="84">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="60">
+      <c r="H4" t="s" s="84">
         <v>50</v>
       </c>
-      <c r="I4" t="s" s="60">
+      <c r="I4" t="s" s="84">
         <v>51</v>
       </c>
-      <c r="J4" t="s" s="60">
+      <c r="J4" t="s" s="84">
         <v>189</v>
       </c>
-      <c r="K4" t="s" s="60">
+      <c r="K4" t="s" s="84">
         <v>52</v>
       </c>
       <c r="L4" t="s">
@@ -3820,7 +5927,7 @@
         <v>132</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6">
@@ -3900,41 +6007,41 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="61">
+      <c r="A8" t="s" s="85">
         <v>67</v>
       </c>
-      <c r="B8" t="s" s="61">
+      <c r="B8" t="s" s="85">
         <v>68</v>
       </c>
-      <c r="C8" t="s" s="61">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="61">
+      <c r="C8" t="s" s="85">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="85">
         <v>15</v>
       </c>
-      <c r="E8" t="s" s="61">
+      <c r="E8" t="s" s="85">
         <v>69</v>
       </c>
-      <c r="F8" t="s" s="61">
+      <c r="F8" t="s" s="85">
         <v>62</v>
       </c>
-      <c r="G8" t="s" s="61">
+      <c r="G8" t="s" s="85">
         <v>70</v>
       </c>
-      <c r="H8" t="s" s="61">
+      <c r="H8" t="s" s="85">
         <v>71</v>
       </c>
-      <c r="I8" t="s" s="61">
+      <c r="I8" t="s" s="85">
         <v>72</v>
       </c>
-      <c r="J8" t="s" s="61">
+      <c r="J8" t="s" s="85">
         <v>189</v>
       </c>
-      <c r="K8" t="s" s="61">
+      <c r="K8" t="s" s="85">
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9">
@@ -4086,45 +6193,45 @@
         <v>196</v>
       </c>
       <c r="L12" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="62">
+      <c r="A13" t="s" s="86">
         <v>88</v>
       </c>
-      <c r="B13" t="s" s="62">
+      <c r="B13" t="s" s="86">
         <v>89</v>
       </c>
-      <c r="C13" t="s" s="62">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s" s="62">
+      <c r="C13" t="s" s="86">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="86">
         <v>15</v>
       </c>
-      <c r="E13" t="s" s="62">
+      <c r="E13" t="s" s="86">
         <v>90</v>
       </c>
-      <c r="F13" t="s" s="62">
+      <c r="F13" t="s" s="86">
         <v>41</v>
       </c>
-      <c r="G13" t="s" s="62">
+      <c r="G13" t="s" s="86">
         <v>70</v>
       </c>
-      <c r="H13" t="s" s="62">
+      <c r="H13" t="s" s="86">
         <v>91</v>
       </c>
-      <c r="I13" t="s" s="62">
+      <c r="I13" t="s" s="86">
         <v>92</v>
       </c>
-      <c r="J13" t="s" s="62">
+      <c r="J13" t="s" s="86">
         <v>189</v>
       </c>
-      <c r="K13" t="s" s="62">
+      <c r="K13" t="s" s="86">
         <v>93</v>
       </c>
       <c r="L13" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14">
@@ -4238,7 +6345,7 @@
         <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17">
@@ -4314,7 +6421,7 @@
         <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -4432,40 +6539,648 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="87">
         <v>183</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="87">
         <v>184</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s" s="87">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="87">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="87">
         <v>185</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="87">
         <v>83</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="87">
         <v>62</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="87">
         <v>186</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="87">
         <v>187</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" t="s" s="87">
         <v>189</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="87">
         <v>188</v>
       </c>
       <c r="L22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>233</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>251</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>245</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>308</v>
+      </c>
+      <c r="I32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33" t="s">
+        <v>283</v>
+      </c>
+      <c r="I33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" t="s">
+        <v>189</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>289</v>
+      </c>
+      <c r="H34" t="s">
+        <v>290</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" t="s">
+        <v>298</v>
+      </c>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>263</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>302</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
         <v>23</v>
       </c>
     </row>
